--- a/digital-objects/omap/25-lung-codex/v1.0/raw/omap-25-lung-codex.xlsx
+++ b/digital-objects/omap/25-lung-codex/v1.0/raw/omap-25-lung-codex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/25-lung-codex/v1.0/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5A3868-07E7-F946-A4D6-98644BF1F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7B8E1-130D-554B-8411-B11C988603B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38820" yWindow="7240" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,7 +1278,7 @@
     <t>https://doi.org/10.48539/HBM637.GFWK.542</t>
   </si>
   <si>
-    <t>Expanded Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Lung with CODEX</t>
+    <t>OMAP-25: Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Lung with CODEX</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1983,7 @@
       <pane xSplit="4" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
